--- a/backend/data/eleData/Table data/Models.xlsx
+++ b/backend/data/eleData/Table data/Models.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\web_application\backend\data\eleData\Table data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{298EE3FB-D0AA-4809-9AF7-28BC4549AF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC0C169-DF38-4648-B1D7-DEEBB2030DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="17400" xr2:uid="{5C8F66E1-6A1F-47C3-A1F9-C12D7E2F0472}"/>
   </bookViews>
   <sheets>
     <sheet name="Orange-Model" sheetId="1" r:id="rId1"/>
+    <sheet name="Switches" sheetId="3" r:id="rId2"/>
+    <sheet name="Sockets" sheetId="2" r:id="rId3"/>
+    <sheet name="breakers" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="97">
   <si>
     <t>Akoya-Silver-Mat</t>
   </si>
@@ -60,9 +63,6 @@
     <t>Scintilla-Kaluwara</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>Casabalanca</t>
   </si>
   <si>
@@ -88,6 +88,237 @@
   </si>
   <si>
     <t>Alpha</t>
+  </si>
+  <si>
+    <t>1Gang 1Way</t>
+  </si>
+  <si>
+    <t>2Gang 1Way</t>
+  </si>
+  <si>
+    <t>3Gang 1Way</t>
+  </si>
+  <si>
+    <t>4Gang 1Way</t>
+  </si>
+  <si>
+    <t>5Gang 1Way</t>
+  </si>
+  <si>
+    <t>6Gang 1Way</t>
+  </si>
+  <si>
+    <t>1Gang 2Way</t>
+  </si>
+  <si>
+    <t>2Gang 2Way</t>
+  </si>
+  <si>
+    <t>3Gang 2Way</t>
+  </si>
+  <si>
+    <t>4Gang 2Way</t>
+  </si>
+  <si>
+    <t>5Gang 2Way</t>
+  </si>
+  <si>
+    <t>6Gang 2Way</t>
+  </si>
+  <si>
+    <t>13A S/Socket</t>
+  </si>
+  <si>
+    <t>13A S/Socket With Neon</t>
+  </si>
+  <si>
+    <t>13A S/Socket Outlet 6A Max</t>
+  </si>
+  <si>
+    <t>13A Twin S/Socket Outlet</t>
+  </si>
+  <si>
+    <t>1G 4Wire Telephone Socket</t>
+  </si>
+  <si>
+    <t>TV Socket Outlet</t>
+  </si>
+  <si>
+    <t>8W/8Con Tel &amp; Data Socket</t>
+  </si>
+  <si>
+    <t>1Gang 2.1A USB Type A</t>
+  </si>
+  <si>
+    <t>2 Gang TV socket</t>
+  </si>
+  <si>
+    <t>2 Gang 8 Con Tele &amp; Data socket</t>
+  </si>
+  <si>
+    <t>2 Gang TV + Data socket</t>
+  </si>
+  <si>
+    <t>13A Fused Flex Outlet unit</t>
+  </si>
+  <si>
+    <t>13A- With Surge Arrester</t>
+  </si>
+  <si>
+    <t>13Amp Twin socket With Neon</t>
+  </si>
+  <si>
+    <t>TV+TP Socket</t>
+  </si>
+  <si>
+    <t>TP+Data Socket</t>
+  </si>
+  <si>
+    <t>25A 1 Gang Flex Connection unit</t>
+  </si>
+  <si>
+    <t>MCB 1 pole 6A</t>
+  </si>
+  <si>
+    <t>MCB 1 pole 10A</t>
+  </si>
+  <si>
+    <t>MCB 1 pole 16A</t>
+  </si>
+  <si>
+    <t>MCB 1 pole 20A</t>
+  </si>
+  <si>
+    <t>MCB 1 pole 32A</t>
+  </si>
+  <si>
+    <t>MCB 1 pole 40A</t>
+  </si>
+  <si>
+    <t>MCB 1 pole 63A</t>
+  </si>
+  <si>
+    <t>MCB 2 pole 6A</t>
+  </si>
+  <si>
+    <t>MCB 2 pole 10A</t>
+  </si>
+  <si>
+    <t>MCB 2 pole 16A</t>
+  </si>
+  <si>
+    <t>MCB 2 pole 20A</t>
+  </si>
+  <si>
+    <t>MCB 2 pole 32A</t>
+  </si>
+  <si>
+    <t>MCB 2 pole 40A</t>
+  </si>
+  <si>
+    <t>MCB 2 pole 63A</t>
+  </si>
+  <si>
+    <t>MCB 3 pole 6A</t>
+  </si>
+  <si>
+    <t>MCB 3 pole 10A</t>
+  </si>
+  <si>
+    <t>MCB 3 pole 16A</t>
+  </si>
+  <si>
+    <t>MCB 3 pole 20A</t>
+  </si>
+  <si>
+    <t>MCB 3 pole 32A</t>
+  </si>
+  <si>
+    <t>MCB 3 pole 40A</t>
+  </si>
+  <si>
+    <t>MCB 3 pole 63A</t>
+  </si>
+  <si>
+    <t>MCB 4 pole 6A</t>
+  </si>
+  <si>
+    <t>MCB 4 pole 10A</t>
+  </si>
+  <si>
+    <t>MCB 4 pole 16A</t>
+  </si>
+  <si>
+    <t>MCB 4 pole 20A</t>
+  </si>
+  <si>
+    <t>MCB 4 pole 32A</t>
+  </si>
+  <si>
+    <t>MCB 4 pole 40A</t>
+  </si>
+  <si>
+    <t>MCB 4 pole 63A</t>
+  </si>
+  <si>
+    <t>Isolator 2 pole 40A</t>
+  </si>
+  <si>
+    <t>Isolator 2 pole 63A</t>
+  </si>
+  <si>
+    <t>Isolator 3 pole 40A</t>
+  </si>
+  <si>
+    <t>Isolator 3 pole 63A</t>
+  </si>
+  <si>
+    <t>Isolator 4 pole 40A</t>
+  </si>
+  <si>
+    <t>Isolator 4 pole 63A</t>
+  </si>
+  <si>
+    <t>RCD 2 Pole 40A 30mA</t>
+  </si>
+  <si>
+    <t>RCD 2 Pole 40A 100mA</t>
+  </si>
+  <si>
+    <t>RCD 2 Pole 63A 30mA</t>
+  </si>
+  <si>
+    <t>RCD 2 Pole 63A 100mA</t>
+  </si>
+  <si>
+    <t>RCD 4 Pole 40A 30mA</t>
+  </si>
+  <si>
+    <t>RCD 4 Pole 40A 100mA</t>
+  </si>
+  <si>
+    <t>RCD 4 Pole 40A 300mA</t>
+  </si>
+  <si>
+    <t>RCD 4 Pole 63A 30mA</t>
+  </si>
+  <si>
+    <t>RCD 4 Pole 63A 100mA</t>
+  </si>
+  <si>
+    <t>MCB Type Indicator Green</t>
+  </si>
+  <si>
+    <t>MCB Type Indicator Red</t>
+  </si>
+  <si>
+    <t>MCB Type Indicator Blue</t>
+  </si>
+  <si>
+    <t>MCB Type Indicator Yellow</t>
+  </si>
+  <si>
+    <t>MCB Type Electric Bell</t>
   </si>
 </sst>
 </file>
@@ -439,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00633B53-81B5-4DFF-9200-58D8A13EDE0F}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,62 +683,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -527,17 +758,17 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -550,9 +781,528 @@
         <v>19</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE1A826-0319-4033-B2B1-A273BBE46C8E}">
+  <dimension ref="A1:A29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A1:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA0164B-9993-42F6-A0CC-BCBD32BD8C62}">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEE59E1-C1C9-4E49-BAD6-94CCAA9FE26A}">
+  <dimension ref="A1:A48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
